--- a/Test/Results/MSEAZ/MSEAZBO.xlsx
+++ b/Test/Results/MSEAZ/MSEAZBO.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02144048683922503</v>
+        <v>0.02169066255373781</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.039627610794568</v>
+        <v>0.01635940327777024</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03722433040932158</v>
+        <v>0.0382612651569738</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05420713874720898</v>
+        <v>0.01814008257556293</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05047358643807906</v>
+        <v>0.03684457670224629</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02244490915333322</v>
+        <v>0.01821284750863585</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06691843960139271</v>
+        <v>0.05584172038717309</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.08777205658536932</v>
+        <v>0.02456110967712103</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0179195503964667</v>
+        <v>0.01849949873909668</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0255422018895139</v>
+        <v>0.02345977451477636</v>
       </c>
     </row>
   </sheetData>
